--- a/New Microsoft Excel Worksheet.xlsx
+++ b/New Microsoft Excel Worksheet.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\OneDrive\Documents\GitHub\E-Hospital-Management\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15533CFC-40B2-4093-9326-0507EF4F988D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,8 +24,73 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+  <si>
+    <t>PATIENT</t>
+  </si>
+  <si>
+    <t>pid</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>DOB</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Blood group</t>
+  </si>
+  <si>
+    <t>Weight</t>
+  </si>
+  <si>
+    <t>Height</t>
+  </si>
+  <si>
+    <t>Insurance details</t>
+  </si>
+  <si>
+    <t>Date of visit</t>
+  </si>
+  <si>
+    <t>Disease</t>
+  </si>
+  <si>
+    <t>Symptom1</t>
+  </si>
+  <si>
+    <t>Symptom2</t>
+  </si>
+  <si>
+    <t>Symptom3</t>
+  </si>
+  <si>
+    <t>Symptom4</t>
+  </si>
+  <si>
+    <t>Prescription</t>
+  </si>
+  <si>
+    <t>Suggestions/Precautions</t>
+  </si>
+  <si>
+    <t>Doctor Id</t>
+  </si>
+  <si>
+    <t>Doctor Name</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -330,13 +401,91 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:S4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="6" max="6" width="10.90625" customWidth="1"/>
+    <col min="9" max="9" width="14.6328125" customWidth="1"/>
+    <col min="12" max="12" width="9.81640625" customWidth="1"/>
+    <col min="13" max="13" width="10.08984375" customWidth="1"/>
+    <col min="14" max="14" width="10.7265625" customWidth="1"/>
+    <col min="15" max="15" width="10.08984375" customWidth="1"/>
+    <col min="16" max="16" width="11.1796875" customWidth="1"/>
+    <col min="17" max="17" width="21.81640625" customWidth="1"/>
+    <col min="19" max="19" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" t="s">
+        <v>12</v>
+      </c>
+      <c r="M4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N4" t="s">
+        <v>14</v>
+      </c>
+      <c r="O4" t="s">
+        <v>15</v>
+      </c>
+      <c r="P4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>17</v>
+      </c>
+      <c r="R4" t="s">
+        <v>18</v>
+      </c>
+      <c r="S4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/New Microsoft Excel Worksheet.xlsx
+++ b/New Microsoft Excel Worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\OneDrive\Documents\GitHub\E-Hospital-Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15533CFC-40B2-4093-9326-0507EF4F988D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0286D55D-DEC8-40C3-9E93-6340285D20FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>PATIENT</t>
   </si>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t>Doctor Name</t>
+  </si>
+  <si>
+    <t>Rating</t>
   </si>
 </sst>
 </file>
@@ -402,10 +405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S4"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="T4" sqref="T4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -421,12 +424,12 @@
     <col min="19" max="19" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -483,6 +486,9 @@
       </c>
       <c r="S4" t="s">
         <v>19</v>
+      </c>
+      <c r="T4" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/New Microsoft Excel Worksheet.xlsx
+++ b/New Microsoft Excel Worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\OneDrive\Documents\GitHub\E-Hospital-Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0286D55D-DEC8-40C3-9E93-6340285D20FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38FEF429-422F-4885-B43D-AF1C47492E81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="56">
   <si>
     <t>PATIENT</t>
   </si>
@@ -54,9 +54,6 @@
     <t>Height</t>
   </si>
   <si>
-    <t>Insurance details</t>
-  </si>
-  <si>
     <t>Date of visit</t>
   </si>
   <si>
@@ -88,16 +85,130 @@
   </si>
   <si>
     <t>Rating</t>
+  </si>
+  <si>
+    <t>Aadhar Number</t>
+  </si>
+  <si>
+    <t>Time of Visit</t>
+  </si>
+  <si>
+    <t>Hospital Name</t>
+  </si>
+  <si>
+    <t>Hospital Address</t>
+  </si>
+  <si>
+    <t>Insurance Details</t>
+  </si>
+  <si>
+    <t>Avinash</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>16/09/1980</t>
+  </si>
+  <si>
+    <t>#1, 3rd cross, 2nd main, Kempapura, Bengaluru</t>
+  </si>
+  <si>
+    <t>B+</t>
+  </si>
+  <si>
+    <t>5'8</t>
+  </si>
+  <si>
+    <t>15/1/2021</t>
+  </si>
+  <si>
+    <t>25/9/2021</t>
+  </si>
+  <si>
+    <t>Heart attack</t>
+  </si>
+  <si>
+    <t>Covid19</t>
+  </si>
+  <si>
+    <t>Chest pain</t>
+  </si>
+  <si>
+    <t>Shortness of breath</t>
+  </si>
+  <si>
+    <t>Dizziness</t>
+  </si>
+  <si>
+    <t>Vomiting</t>
+  </si>
+  <si>
+    <t>Quit smoking, Get proper sleep,loose extra weight</t>
+  </si>
+  <si>
+    <t>Aspirin,Pain relievers,Nitroglycerin</t>
+  </si>
+  <si>
+    <t>Dr. Shilpa</t>
+  </si>
+  <si>
+    <t>Sri Siddaganga Hospital</t>
+  </si>
+  <si>
+    <t>BH Road, Tumkur</t>
+  </si>
+  <si>
+    <t>policybazzar</t>
+  </si>
+  <si>
+    <t>Shivanandha Hospital</t>
+  </si>
+  <si>
+    <t>Vinayaka Hospital</t>
+  </si>
+  <si>
+    <t>Dr. Arun</t>
+  </si>
+  <si>
+    <t>Dr. Ismile</t>
+  </si>
+  <si>
+    <t>Fever</t>
+  </si>
+  <si>
+    <t>Cough</t>
+  </si>
+  <si>
+    <t>Headache</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dolo 650,Paracetamol,Ivermectin </t>
+  </si>
+  <si>
+    <t>Wear mask,Get vaccinated,Clean your hands</t>
+  </si>
+  <si>
+    <t>Loss of taste and smell</t>
+  </si>
+  <si>
+    <t>Irritated eyes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -123,8 +234,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -405,93 +518,335 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:X7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="T4" sqref="T4"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="6" max="6" width="10.90625" customWidth="1"/>
-    <col min="9" max="9" width="14.6328125" customWidth="1"/>
-    <col min="12" max="12" width="9.81640625" customWidth="1"/>
-    <col min="13" max="13" width="10.08984375" customWidth="1"/>
-    <col min="14" max="14" width="10.7265625" customWidth="1"/>
-    <col min="15" max="15" width="10.08984375" customWidth="1"/>
-    <col min="16" max="16" width="11.1796875" customWidth="1"/>
-    <col min="17" max="17" width="21.81640625" customWidth="1"/>
-    <col min="19" max="19" width="12" customWidth="1"/>
+    <col min="2" max="2" width="17.08984375" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="7" max="7" width="10.90625" customWidth="1"/>
+    <col min="10" max="10" width="14.6328125" customWidth="1"/>
+    <col min="11" max="11" width="12.08984375" customWidth="1"/>
+    <col min="12" max="12" width="10.90625" customWidth="1"/>
+    <col min="13" max="13" width="22.36328125" customWidth="1"/>
+    <col min="14" max="14" width="17" customWidth="1"/>
+    <col min="15" max="15" width="11.6328125" customWidth="1"/>
+    <col min="16" max="16" width="17.1796875" customWidth="1"/>
+    <col min="17" max="17" width="28.81640625" customWidth="1"/>
+    <col min="18" max="18" width="43.453125" customWidth="1"/>
+    <col min="20" max="20" width="12" customWidth="1"/>
+    <col min="21" max="21" width="21" customWidth="1"/>
+    <col min="22" max="22" width="17.26953125" customWidth="1"/>
+    <col min="24" max="24" width="17.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>1</v>
       </c>
       <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>3</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>4</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>5</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>6</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>7</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>8</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" t="s">
         <v>9</v>
       </c>
-      <c r="J4" t="s">
+      <c r="L4" t="s">
         <v>10</v>
       </c>
-      <c r="K4" t="s">
+      <c r="M4" t="s">
         <v>11</v>
       </c>
-      <c r="L4" t="s">
+      <c r="N4" t="s">
         <v>12</v>
       </c>
-      <c r="M4" t="s">
+      <c r="O4" t="s">
         <v>13</v>
       </c>
-      <c r="N4" t="s">
+      <c r="P4" t="s">
         <v>14</v>
       </c>
-      <c r="O4" t="s">
+      <c r="Q4" t="s">
         <v>15</v>
       </c>
-      <c r="P4" t="s">
+      <c r="R4" t="s">
         <v>16</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="S4" t="s">
         <v>17</v>
       </c>
-      <c r="R4" t="s">
+      <c r="T4" t="s">
         <v>18</v>
       </c>
-      <c r="S4" t="s">
+      <c r="U4" t="s">
+        <v>22</v>
+      </c>
+      <c r="V4" t="s">
+        <v>23</v>
+      </c>
+      <c r="W4" t="s">
         <v>19</v>
       </c>
-      <c r="T4" t="s">
-        <v>20</v>
+      <c r="X4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>256407896744</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5">
+        <v>80</v>
+      </c>
+      <c r="I5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0.4375</v>
+      </c>
+      <c r="K5" s="2">
+        <v>44107</v>
+      </c>
+      <c r="L5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M5" t="s">
+        <v>35</v>
+      </c>
+      <c r="N5" t="s">
+        <v>36</v>
+      </c>
+      <c r="O5" t="s">
+        <v>37</v>
+      </c>
+      <c r="P5" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>40</v>
+      </c>
+      <c r="R5" t="s">
+        <v>39</v>
+      </c>
+      <c r="S5">
+        <v>10001</v>
+      </c>
+      <c r="T5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U5" t="s">
+        <v>42</v>
+      </c>
+      <c r="V5" t="s">
+        <v>43</v>
+      </c>
+      <c r="W5">
+        <v>4.5</v>
+      </c>
+      <c r="X5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>256407896744</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6">
+        <v>75</v>
+      </c>
+      <c r="I6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="K6" t="s">
+        <v>31</v>
+      </c>
+      <c r="L6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M6" t="s">
+        <v>49</v>
+      </c>
+      <c r="N6" t="s">
+        <v>50</v>
+      </c>
+      <c r="O6" t="s">
+        <v>51</v>
+      </c>
+      <c r="P6" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>52</v>
+      </c>
+      <c r="R6" t="s">
+        <v>53</v>
+      </c>
+      <c r="S6">
+        <v>10005</v>
+      </c>
+      <c r="T6" t="s">
+        <v>47</v>
+      </c>
+      <c r="U6" t="s">
+        <v>45</v>
+      </c>
+      <c r="V6" t="s">
+        <v>43</v>
+      </c>
+      <c r="W6">
+        <v>4.2</v>
+      </c>
+      <c r="X6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>256407896744</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7">
+        <v>76</v>
+      </c>
+      <c r="I7" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0.6875</v>
+      </c>
+      <c r="K7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M7" t="s">
+        <v>54</v>
+      </c>
+      <c r="N7" t="s">
+        <v>50</v>
+      </c>
+      <c r="O7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>52</v>
+      </c>
+      <c r="R7" t="s">
+        <v>53</v>
+      </c>
+      <c r="S7">
+        <v>10011</v>
+      </c>
+      <c r="T7" t="s">
+        <v>48</v>
+      </c>
+      <c r="U7" t="s">
+        <v>46</v>
+      </c>
+      <c r="V7" t="s">
+        <v>43</v>
+      </c>
+      <c r="W7">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="X7" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>